--- a/2019_dkp/2019_11_29_dkp.xlsx
+++ b/2019_dkp/2019_11_29_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93685F36-B39D-4469-B523-30DD4D910E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83239871-307D-40CC-90F3-18180E90F27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,56 +382,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -747,7 +698,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6">
@@ -1352,7 +1303,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
